--- a/TNR_JDD/JDD.AD.DEP.xlsx
+++ b/TNR_JDD/JDD.AD.DEP.xlsx
@@ -144,10 +144,10 @@
     <t>About#</t>
   </si>
   <si>
-    <t>V13.0.2</t>
+    <t>V13.0.4</t>
   </si>
   <si>
-    <t>13,0,0,1 15/03/2023</t>
+    <t>13,0,0,1 12/07/2023</t>
   </si>
   <si>
     <t>TAB</t>
@@ -2888,13 +2888,13 @@
       <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="16"/>

--- a/TNR_JDD/JDD.AD.DEP.xlsx
+++ b/TNR_JDD/JDD.AD.DEP.xlsx
@@ -147,7 +147,7 @@
     <t>V13.0.4</t>
   </si>
   <si>
-    <t>13,0,0,1 12/07/2023</t>
+    <t>13.0.4 (13,0,0,1 - 12/07/2023)</t>
   </si>
   <si>
     <t>TAB</t>

--- a/TNR_JDD/JDD.AD.DEP.xlsx
+++ b/TNR_JDD/JDD.AD.DEP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>SEQUENCE</t>
-  </si>
-  <si>
-    <t>13.0.4 (13,0,0,1 - 12/07/2023)yyy</t>
   </si>
 </sst>
 </file>
@@ -2764,7 +2761,7 @@
   <dimension ref="A1:W998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2887,7 +2884,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>36</v>
